--- a/dataset_vendas2.xlsx
+++ b/dataset_vendas2.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive\My Drive\Rafael\UniFai\documentação\cicfai\MC-DataScience_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332C3764-BE45-4486-A395-1680156E72F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0873FC-840A-4F61-AFC0-E504B4DC2C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37245" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
-    <sheet name="tenis_intro" sheetId="6" r:id="rId2"/>
-    <sheet name="Naive Bayes" sheetId="2" r:id="rId3"/>
-    <sheet name="Pearson" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
-    <sheet name="ID3" sheetId="4" r:id="rId6"/>
+    <sheet name="Naive Bayes" sheetId="2" r:id="rId2"/>
+    <sheet name="Pearson" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="ID3" sheetId="4" r:id="rId5"/>
+    <sheet name="tenis_intro" sheetId="6" r:id="rId6"/>
     <sheet name="Atividade" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dados!$M$1:$M$1000</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Naive Bayes'!$D$3:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Pearson!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Naive Bayes'!$D$3:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pearson!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7317,7 +7317,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7347,9 +7347,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -48910,295 +48909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B822E8F3-BE61-4F5C-A26D-D9F80AC705A9}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37872804-D23B-47D8-834E-4E7B9627C615}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49529,7 +49244,7 @@
         <v>460</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R5" s="6">
         <v>8</v>
@@ -49631,7 +49346,7 @@
       </c>
       <c r="Q7" s="3">
         <f>COUNTIF(dados!H2:'dados'!H1000, Q5)</f>
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="R7" s="3">
         <f>COUNTIF(dados!L2:'dados'!L1000, R5)</f>
@@ -49689,7 +49404,7 @@
       </c>
       <c r="Q8" s="17">
         <f t="shared" si="2"/>
-        <v>0.13927855711422846</v>
+        <v>0.15130260521042085</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" si="2"/>
@@ -50339,7 +50054,7 @@
         <v>20</v>
       </c>
       <c r="Y26" t="str">
-        <v>2003-10-19</v>
+        <v>15-09-2022</v>
       </c>
       <c r="Z26">
         <v>6</v>
@@ -50404,7 +50119,7 @@
         <v>21</v>
       </c>
       <c r="Y27" t="str">
-        <v>1994-06-29</v>
+        <v>23-07-2023</v>
       </c>
       <c r="Z27">
         <v>5</v>
@@ -50469,7 +50184,7 @@
         <v>22</v>
       </c>
       <c r="Y28" t="str">
-        <v>1957-05-30</v>
+        <v>22-02-2023</v>
       </c>
       <c r="Z28">
         <v>6</v>
@@ -50534,7 +50249,7 @@
         <v>26</v>
       </c>
       <c r="Y29" t="str">
-        <v>2004-12-31</v>
+        <v>18-03-2023</v>
       </c>
       <c r="Z29">
         <v>7</v>
@@ -50599,7 +50314,7 @@
         <v>34</v>
       </c>
       <c r="Y30" t="str">
-        <v>1974-01-27</v>
+        <v>05-04-2022</v>
       </c>
       <c r="Z30">
         <v>6</v>
@@ -50664,7 +50379,7 @@
         <v>39</v>
       </c>
       <c r="Y31" t="str">
-        <v>1983-01-03</v>
+        <v>04-05-2022</v>
       </c>
       <c r="Z31">
         <v>6</v>
@@ -50729,7 +50444,7 @@
         <v>41</v>
       </c>
       <c r="Y32" t="str">
-        <v>1963-02-20</v>
+        <v>03-07-2023</v>
       </c>
       <c r="Z32">
         <v>5</v>
@@ -50794,7 +50509,7 @@
         <v>53</v>
       </c>
       <c r="Y33" t="str">
-        <v>1975-05-19</v>
+        <v>01-06-2022</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -50859,7 +50574,7 @@
         <v>54</v>
       </c>
       <c r="Y34" t="str">
-        <v>1966-10-25</v>
+        <v>26-01-2022</v>
       </c>
       <c r="Z34">
         <v>5</v>
@@ -50924,7 +50639,7 @@
         <v>58</v>
       </c>
       <c r="Y35" t="str">
-        <v>1978-05-14</v>
+        <v>24-10-2022</v>
       </c>
       <c r="Z35">
         <v>9</v>
@@ -50989,7 +50704,7 @@
         <v>60</v>
       </c>
       <c r="Y36" t="str">
-        <v>1994-12-30</v>
+        <v>02-04-2023</v>
       </c>
       <c r="Z36">
         <v>7</v>
@@ -51054,7 +50769,7 @@
         <v>66</v>
       </c>
       <c r="Y37" t="str">
-        <v>1957-05-03</v>
+        <v>26-03-2022</v>
       </c>
       <c r="Z37">
         <v>6</v>
@@ -51119,7 +50834,7 @@
         <v>72</v>
       </c>
       <c r="Y38" t="str">
-        <v>1986-03-12</v>
+        <v>07-08-2023</v>
       </c>
       <c r="Z38">
         <v>10</v>
@@ -51184,7 +50899,7 @@
         <v>79</v>
       </c>
       <c r="Y39" t="str">
-        <v>1967-04-20</v>
+        <v>03-07-2023</v>
       </c>
       <c r="Z39">
         <v>5</v>
@@ -51249,7 +50964,7 @@
         <v>80</v>
       </c>
       <c r="Y40" t="str">
-        <v>1964-07-12</v>
+        <v>24-05-2023</v>
       </c>
       <c r="Z40">
         <v>2</v>
@@ -51314,7 +51029,7 @@
         <v>82</v>
       </c>
       <c r="Y41" t="str">
-        <v>1978-11-18</v>
+        <v>13-01-2022</v>
       </c>
       <c r="Z41">
         <v>9</v>
@@ -51379,7 +51094,7 @@
         <v>84</v>
       </c>
       <c r="Y42" t="str">
-        <v>1976-04-17</v>
+        <v>22-04-2023</v>
       </c>
       <c r="Z42">
         <v>11</v>
@@ -51444,7 +51159,7 @@
         <v>87</v>
       </c>
       <c r="Y43" t="str">
-        <v>1974-08-15</v>
+        <v>19-09-2022</v>
       </c>
       <c r="Z43">
         <v>6</v>
@@ -51509,7 +51224,7 @@
         <v>96</v>
       </c>
       <c r="Y44" t="str">
-        <v>1992-06-17</v>
+        <v>16-12-2021</v>
       </c>
       <c r="Z44">
         <v>3</v>
@@ -51574,7 +51289,7 @@
         <v>102</v>
       </c>
       <c r="Y45" t="str">
-        <v>1984-11-24</v>
+        <v>23-01-2023</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -51639,7 +51354,7 @@
         <v>109</v>
       </c>
       <c r="Y46" t="str">
-        <v>1976-09-15</v>
+        <v>30-03-2022</v>
       </c>
       <c r="Z46">
         <v>3</v>
@@ -51704,7 +51419,7 @@
         <v>119</v>
       </c>
       <c r="Y47" t="str">
-        <v>1996-01-01</v>
+        <v>29-03-2023</v>
       </c>
       <c r="Z47">
         <v>11</v>
@@ -51769,7 +51484,7 @@
         <v>120</v>
       </c>
       <c r="Y48" t="str">
-        <v>1969-12-17</v>
+        <v>02-10-2022</v>
       </c>
       <c r="Z48">
         <v>5</v>
@@ -51834,7 +51549,7 @@
         <v>122</v>
       </c>
       <c r="Y49" t="str">
-        <v>1976-11-19</v>
+        <v>07-05-2022</v>
       </c>
       <c r="Z49">
         <v>7</v>
@@ -51899,7 +51614,7 @@
         <v>123</v>
       </c>
       <c r="Y50" t="str">
-        <v>1969-06-13</v>
+        <v>04-03-2022</v>
       </c>
       <c r="Z50">
         <v>11</v>
@@ -51964,7 +51679,7 @@
         <v>127</v>
       </c>
       <c r="Y51" t="str">
-        <v>1996-03-07</v>
+        <v>07-02-2023</v>
       </c>
       <c r="Z51">
         <v>8</v>
@@ -52029,7 +51744,7 @@
         <v>131</v>
       </c>
       <c r="Y52" t="str">
-        <v>1991-02-07</v>
+        <v>13-10-2022</v>
       </c>
       <c r="Z52">
         <v>4</v>
@@ -52094,7 +51809,7 @@
         <v>134</v>
       </c>
       <c r="Y53" t="str">
-        <v>1970-11-14</v>
+        <v>21-05-2022</v>
       </c>
       <c r="Z53">
         <v>5</v>
@@ -52159,7 +51874,7 @@
         <v>136</v>
       </c>
       <c r="Y54" t="str">
-        <v>1989-08-04</v>
+        <v>10-12-2021</v>
       </c>
       <c r="Z54">
         <v>8</v>
@@ -52224,7 +51939,7 @@
         <v>138</v>
       </c>
       <c r="Y55" t="str">
-        <v>1981-06-13</v>
+        <v>14-07-2022</v>
       </c>
       <c r="Z55">
         <v>8</v>
@@ -52286,7 +52001,7 @@
         <v>139</v>
       </c>
       <c r="Y56" t="str">
-        <v>1972-03-06</v>
+        <v>29-08-2023</v>
       </c>
       <c r="Z56">
         <v>2</v>
@@ -52348,7 +52063,7 @@
         <v>142</v>
       </c>
       <c r="Y57" t="str">
-        <v>1967-05-16</v>
+        <v>23-11-2022</v>
       </c>
       <c r="Z57">
         <v>10</v>
@@ -52410,7 +52125,7 @@
         <v>145</v>
       </c>
       <c r="Y58" t="str">
-        <v>1958-06-23</v>
+        <v>05-06-2023</v>
       </c>
       <c r="Z58">
         <v>9</v>
@@ -52472,7 +52187,7 @@
         <v>164</v>
       </c>
       <c r="Y59" t="str">
-        <v>1985-01-19</v>
+        <v>15-07-2022</v>
       </c>
       <c r="Z59">
         <v>3</v>
@@ -52534,7 +52249,7 @@
         <v>167</v>
       </c>
       <c r="Y60" t="str">
-        <v>1991-01-26</v>
+        <v>16-04-2022</v>
       </c>
       <c r="Z60">
         <v>3</v>
@@ -52596,7 +52311,7 @@
         <v>172</v>
       </c>
       <c r="Y61" t="str">
-        <v>2001-01-20</v>
+        <v>03-12-2021</v>
       </c>
       <c r="Z61">
         <v>9</v>
@@ -52658,7 +52373,7 @@
         <v>177</v>
       </c>
       <c r="Y62" t="str">
-        <v>1994-08-11</v>
+        <v>03-11-2021</v>
       </c>
       <c r="Z62">
         <v>5</v>
@@ -52720,7 +52435,7 @@
         <v>178</v>
       </c>
       <c r="Y63" t="str">
-        <v>2003-06-20</v>
+        <v>24-10-2022</v>
       </c>
       <c r="Z63">
         <v>9</v>
@@ -52782,7 +52497,7 @@
         <v>180</v>
       </c>
       <c r="Y64" t="str">
-        <v>1999-07-14</v>
+        <v>04-02-2023</v>
       </c>
       <c r="Z64">
         <v>10</v>
@@ -52844,7 +52559,7 @@
         <v>412</v>
       </c>
       <c r="Y65" t="str">
-        <v>1987-04-03</v>
+        <v>16-01-2022</v>
       </c>
       <c r="Z65">
         <v>4</v>
@@ -52906,7 +52621,7 @@
         <v>424</v>
       </c>
       <c r="Y66" t="str">
-        <v>1961-10-08</v>
+        <v>13-02-2023</v>
       </c>
       <c r="Z66">
         <v>8</v>
@@ -52968,7 +52683,7 @@
         <v>446</v>
       </c>
       <c r="Y67" t="str">
-        <v>1954-08-16</v>
+        <v>08-12-2021</v>
       </c>
       <c r="Z67">
         <v>2</v>
@@ -53030,7 +52745,7 @@
         <v>461</v>
       </c>
       <c r="Y68" t="str">
-        <v>1972-01-06</v>
+        <v>23-04-2023</v>
       </c>
       <c r="Z68">
         <v>6</v>
@@ -53092,7 +52807,7 @@
         <v>478</v>
       </c>
       <c r="Y69" t="str">
-        <v>1979-11-15</v>
+        <v>02-02-2022</v>
       </c>
       <c r="Z69">
         <v>6</v>
@@ -53154,7 +52869,7 @@
         <v>485</v>
       </c>
       <c r="Y70" t="str">
-        <v>1990-09-20</v>
+        <v>24-11-2021</v>
       </c>
       <c r="Z70">
         <v>9</v>
@@ -53216,7 +52931,7 @@
         <v>493</v>
       </c>
       <c r="Y71" t="str">
-        <v>2000-07-27</v>
+        <v>13-01-2022</v>
       </c>
       <c r="Z71">
         <v>7</v>
@@ -53278,7 +52993,7 @@
         <v>510</v>
       </c>
       <c r="Y72" t="str">
-        <v>1988-04-13</v>
+        <v>02-05-2023</v>
       </c>
       <c r="Z72">
         <v>5</v>
@@ -53340,7 +53055,7 @@
         <v>515</v>
       </c>
       <c r="Y73" t="str">
-        <v>1963-10-18</v>
+        <v>18-12-2022</v>
       </c>
       <c r="Z73">
         <v>9</v>
@@ -53402,7 +53117,7 @@
         <v>519</v>
       </c>
       <c r="Y74" t="str">
-        <v>1974-01-18</v>
+        <v>19-06-2022</v>
       </c>
       <c r="Z74">
         <v>6</v>
@@ -53464,7 +53179,7 @@
         <v>552</v>
       </c>
       <c r="Y75" t="str">
-        <v>1958-08-22</v>
+        <v>27-06-2022</v>
       </c>
       <c r="Z75">
         <v>3</v>
@@ -53526,7 +53241,7 @@
         <v>578</v>
       </c>
       <c r="Y76" t="str">
-        <v>1981-06-12</v>
+        <v>10-04-2022</v>
       </c>
       <c r="Z76">
         <v>1</v>
@@ -53588,7 +53303,7 @@
         <v>584</v>
       </c>
       <c r="Y77" t="str">
-        <v>1981-11-23</v>
+        <v>18-07-2023</v>
       </c>
       <c r="Z77">
         <v>7</v>
@@ -53650,7 +53365,7 @@
         <v>587</v>
       </c>
       <c r="Y78" t="str">
-        <v>1989-01-09</v>
+        <v>18-12-2022</v>
       </c>
       <c r="Z78">
         <v>5</v>
@@ -53712,7 +53427,7 @@
         <v>589</v>
       </c>
       <c r="Y79" t="str">
-        <v>1986-07-08</v>
+        <v>14-09-2022</v>
       </c>
       <c r="Z79">
         <v>11</v>
@@ -53774,7 +53489,7 @@
         <v>632</v>
       </c>
       <c r="Y80" t="str">
-        <v>1971-10-11</v>
+        <v>02-11-2021</v>
       </c>
       <c r="Z80">
         <v>8</v>
@@ -53836,7 +53551,7 @@
         <v>635</v>
       </c>
       <c r="Y81" t="str">
-        <v>2002-11-12</v>
+        <v>29-09-2022</v>
       </c>
       <c r="Z81">
         <v>2</v>
@@ -53898,7 +53613,7 @@
         <v>636</v>
       </c>
       <c r="Y82" t="str">
-        <v>1957-08-22</v>
+        <v>30-08-2022</v>
       </c>
       <c r="Z82">
         <v>9</v>
@@ -53960,7 +53675,7 @@
         <v>655</v>
       </c>
       <c r="Y83" t="str">
-        <v>1983-06-23</v>
+        <v>26-08-2022</v>
       </c>
       <c r="Z83">
         <v>3</v>
@@ -54022,7 +53737,7 @@
         <v>675</v>
       </c>
       <c r="Y84" t="str">
-        <v>2000-12-17</v>
+        <v>19-04-2022</v>
       </c>
       <c r="Z84">
         <v>2</v>
@@ -54084,7 +53799,7 @@
         <v>677</v>
       </c>
       <c r="Y85" t="str">
-        <v>1965-05-23</v>
+        <v>11-06-2022</v>
       </c>
       <c r="Z85">
         <v>8</v>
@@ -54146,7 +53861,7 @@
         <v>680</v>
       </c>
       <c r="Y86" t="str">
-        <v>1958-08-01</v>
+        <v>17-08-2023</v>
       </c>
       <c r="Z86">
         <v>3</v>
@@ -54208,7 +53923,7 @@
         <v>707</v>
       </c>
       <c r="Y87" t="str">
-        <v>1994-09-15</v>
+        <v>15-12-2021</v>
       </c>
       <c r="Z87">
         <v>11</v>
@@ -54270,7 +53985,7 @@
         <v>719</v>
       </c>
       <c r="Y88" t="str">
-        <v>1953-10-18</v>
+        <v>06-12-2021</v>
       </c>
       <c r="Z88">
         <v>10</v>
@@ -54332,7 +54047,7 @@
         <v>729</v>
       </c>
       <c r="Y89" t="str">
-        <v>1970-09-06</v>
+        <v>27-04-2023</v>
       </c>
       <c r="Z89">
         <v>10</v>
@@ -54394,7 +54109,7 @@
         <v>730</v>
       </c>
       <c r="Y90" t="str">
-        <v>1953-03-17</v>
+        <v>27-01-2022</v>
       </c>
       <c r="Z90">
         <v>8</v>
@@ -54456,7 +54171,7 @@
         <v>741</v>
       </c>
       <c r="Y91" t="str">
-        <v>1963-12-14</v>
+        <v>05-08-2023</v>
       </c>
       <c r="Z91">
         <v>10</v>
@@ -54518,7 +54233,7 @@
         <v>767</v>
       </c>
       <c r="Y92" t="str">
-        <v>1959-08-10</v>
+        <v>22-07-2023</v>
       </c>
       <c r="Z92">
         <v>4</v>
@@ -54580,7 +54295,7 @@
         <v>779</v>
       </c>
       <c r="Y93" t="str">
-        <v>1984-03-03</v>
+        <v>05-08-2022</v>
       </c>
       <c r="Z93">
         <v>7</v>
@@ -54642,7 +54357,7 @@
         <v>795</v>
       </c>
       <c r="Y94" t="str">
-        <v>1965-10-12</v>
+        <v>27-07-2023</v>
       </c>
       <c r="Z94">
         <v>2</v>
@@ -54704,7 +54419,7 @@
         <v>803</v>
       </c>
       <c r="Y95" t="str">
-        <v>1968-12-25</v>
+        <v>09-08-2023</v>
       </c>
       <c r="Z95">
         <v>3</v>
@@ -54766,7 +54481,7 @@
         <v>821</v>
       </c>
       <c r="Y96" t="str">
-        <v>1969-06-07</v>
+        <v>29-06-2023</v>
       </c>
       <c r="Z96">
         <v>6</v>
@@ -54828,7 +54543,7 @@
         <v>839</v>
       </c>
       <c r="Y97" t="str">
-        <v>1988-09-23</v>
+        <v>10-02-2022</v>
       </c>
       <c r="Z97">
         <v>7</v>
@@ -54890,7 +54605,7 @@
         <v>844</v>
       </c>
       <c r="Y98" t="str">
-        <v>1972-05-05</v>
+        <v>07-01-2022</v>
       </c>
       <c r="Z98">
         <v>7</v>
@@ -54952,7 +54667,7 @@
         <v>847</v>
       </c>
       <c r="Y99" t="str">
-        <v>1970-10-31</v>
+        <v>20-11-2022</v>
       </c>
       <c r="Z99">
         <v>2</v>
@@ -55014,7 +54729,7 @@
         <v>857</v>
       </c>
       <c r="Y100" t="str">
-        <v>1999-08-24</v>
+        <v>29-07-2023</v>
       </c>
       <c r="Z100">
         <v>9</v>
@@ -55076,7 +54791,7 @@
         <v>860</v>
       </c>
       <c r="Y101" t="str">
-        <v>1961-05-27</v>
+        <v>07-08-2022</v>
       </c>
       <c r="Z101">
         <v>6</v>
@@ -55138,7 +54853,7 @@
         <v>862</v>
       </c>
       <c r="Y102" t="str">
-        <v>1954-10-15</v>
+        <v>17-10-2023</v>
       </c>
       <c r="Z102">
         <v>7</v>
@@ -55200,7 +54915,7 @@
         <v>873</v>
       </c>
       <c r="Y103" t="str">
-        <v>1975-05-15</v>
+        <v>28-07-2022</v>
       </c>
       <c r="Z103">
         <v>6</v>
@@ -55262,7 +54977,7 @@
         <v>876</v>
       </c>
       <c r="Y104" t="str">
-        <v>1980-09-15</v>
+        <v>31-12-2022</v>
       </c>
       <c r="Z104">
         <v>3</v>
@@ -55324,7 +55039,7 @@
         <v>879</v>
       </c>
       <c r="Y105" t="str">
-        <v>1958-03-29</v>
+        <v>21-11-2022</v>
       </c>
       <c r="Z105">
         <v>10</v>
@@ -55386,7 +55101,7 @@
         <v>882</v>
       </c>
       <c r="Y106" t="str">
-        <v>2001-06-30</v>
+        <v>12-10-2023</v>
       </c>
       <c r="Z106">
         <v>8</v>
@@ -55448,7 +55163,7 @@
         <v>887</v>
       </c>
       <c r="Y107" t="str">
-        <v>1998-01-10</v>
+        <v>07-08-2022</v>
       </c>
       <c r="Z107">
         <v>4</v>
@@ -55510,7 +55225,7 @@
         <v>904</v>
       </c>
       <c r="Y108" t="str">
-        <v>1962-02-25</v>
+        <v>10-10-2023</v>
       </c>
       <c r="Z108">
         <v>9</v>
@@ -55572,7 +55287,7 @@
         <v>921</v>
       </c>
       <c r="Y109" t="str">
-        <v>2000-12-16</v>
+        <v>09-08-2023</v>
       </c>
       <c r="Z109">
         <v>7</v>
@@ -55634,7 +55349,7 @@
         <v>969</v>
       </c>
       <c r="Y110" t="str">
-        <v>1960-10-25</v>
+        <v>27-08-2022</v>
       </c>
       <c r="Z110">
         <v>7</v>
@@ -55696,7 +55411,7 @@
         <v>987</v>
       </c>
       <c r="Y111" t="str">
-        <v>1989-02-17</v>
+        <v>30-01-2022</v>
       </c>
       <c r="Z111">
         <v>6</v>
@@ -55758,7 +55473,7 @@
         <v>991</v>
       </c>
       <c r="Y112" t="str">
-        <v>1958-07-02</v>
+        <v>22-04-2022</v>
       </c>
       <c r="Z112">
         <v>3</v>
@@ -55820,7 +55535,7 @@
         <v>994</v>
       </c>
       <c r="Y113" t="str">
-        <v>1960-09-30</v>
+        <v>12-02-2022</v>
       </c>
       <c r="Z113">
         <v>10</v>
@@ -55882,7 +55597,7 @@
         <v>997</v>
       </c>
       <c r="Y114" t="str">
-        <v>1985-08-20</v>
+        <v>30-06-2023</v>
       </c>
       <c r="Z114">
         <v>4</v>
@@ -55944,7 +55659,7 @@
         <v>999</v>
       </c>
       <c r="Y115" t="str">
-        <v>2003-03-12</v>
+        <v>22-09-2022</v>
       </c>
       <c r="Z115">
         <v>3</v>
@@ -72645,7 +72360,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5" xr:uid="{7714821B-9B0A-4FD8-A08E-2618EB0E494D}">
       <formula1>$D$3:$D$4</formula1>
     </dataValidation>
@@ -72666,12 +72381,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F1328-D90C-467F-A713-8554417ED37A}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72952,11 +72667,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394A5AD-FB6E-4E6B-8B98-F3D4E6A7EB51}">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -72993,7 +72708,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>44854</v>
       </c>
       <c r="B2">
@@ -73016,7 +72731,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <v>44855</v>
       </c>
       <c r="B3">
@@ -73039,7 +72754,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="40">
         <v>44856</v>
       </c>
       <c r="B4">
@@ -73062,7 +72777,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="40">
         <v>44857</v>
       </c>
       <c r="B5">
@@ -73085,7 +72800,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <v>44858</v>
       </c>
       <c r="B6">
@@ -73108,7 +72823,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <v>44859</v>
       </c>
       <c r="C7">
@@ -73128,7 +72843,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <v>44860</v>
       </c>
       <c r="B8">
@@ -73151,7 +72866,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <v>44861</v>
       </c>
       <c r="B9">
@@ -73171,7 +72886,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <v>44862</v>
       </c>
       <c r="B10">
@@ -79825,12 +79540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEB8AFB-3452-4CE4-A216-D4B88550074C}">
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79853,7 +79568,7 @@
       <c r="D1" s="22" t="s">
         <v>1668</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>1669</v>
       </c>
       <c r="H1" s="27" t="s">
@@ -80209,7 +79924,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>1682</v>
       </c>
       <c r="I16" s="28" t="str" cm="1">
@@ -80220,30 +79935,30 @@
         <f>COUNTIF($E$2:$E$15,I16)</f>
         <v>5</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="30">
         <f>-(J16/A16*LOG(J16/A16,2))</f>
         <v>0.53050958113222912</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="32"/>
-      <c r="I17" s="29" t="str">
+      <c r="H17" s="31"/>
+      <c r="I17" s="7" t="str">
         <v>Sim</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="7">
         <f>COUNTIF($E$2:$E$15,I17)</f>
         <v>9</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <f>-(J17/A16*LOG(J17/A16,2))</f>
         <v>0.40977637753840185</v>
       </c>
     </row>
     <row r="18" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36">
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35">
         <f>K16+K17</f>
         <v>0.94028595867063092</v>
       </c>
@@ -80362,6 +80077,290 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B822E8F3-BE61-4F5C-A26D-D9F80AC705A9}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="39" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="39" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
